--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H2">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I2">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J2">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2063693333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N2">
-        <v>0.619108</v>
+        <v>0.082249</v>
       </c>
       <c r="O2">
-        <v>0.05249514260861875</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P2">
-        <v>0.05463357984752036</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q2">
-        <v>4.944553094208</v>
+        <v>0.6157195141518889</v>
       </c>
       <c r="R2">
-        <v>44.50097784787199</v>
+        <v>5.541475627366999</v>
       </c>
       <c r="S2">
-        <v>0.007722291599278008</v>
+        <v>0.001089492491180042</v>
       </c>
       <c r="T2">
-        <v>0.008461085463669344</v>
+        <v>0.001161427380541089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H3">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I3">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J3">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.776603999999999</v>
       </c>
       <c r="O3">
-        <v>0.8289736543672389</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P3">
-        <v>0.8627426479250582</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q3">
-        <v>78.08159086790398</v>
+        <v>73.18807359281466</v>
       </c>
       <c r="R3">
-        <v>702.7343178111358</v>
+        <v>658.6926623353319</v>
       </c>
       <c r="S3">
-        <v>0.1219460690843403</v>
+        <v>0.1295035398271197</v>
       </c>
       <c r="T3">
-        <v>0.133612684682562</v>
+        <v>0.1380541474584193</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.959728</v>
+        <v>22.45812766666667</v>
       </c>
       <c r="H4">
-        <v>71.879184</v>
+        <v>67.37438299999999</v>
       </c>
       <c r="I4">
-        <v>0.1471048789571275</v>
+        <v>0.1517873496957344</v>
       </c>
       <c r="J4">
-        <v>0.1548696879699961</v>
+        <v>0.1542780378440176</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.004351333333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N4">
-        <v>0.013054</v>
+        <v>1.066681</v>
       </c>
       <c r="O4">
-        <v>0.001106869224130377</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P4">
-        <v>0.001151958545729551</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q4">
-        <v>0.104256763104</v>
+        <v>11.97782903880383</v>
       </c>
       <c r="R4">
-        <v>0.9383108679359999</v>
+        <v>71.866974232823</v>
       </c>
       <c r="S4">
-        <v>0.0001628258632370687</v>
+        <v>0.02119431737743471</v>
       </c>
       <c r="T4">
-        <v>0.000178403460531506</v>
+        <v>0.01506246300505719</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.959728</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H5">
-        <v>71.879184</v>
+        <v>255.773201</v>
       </c>
       <c r="I5">
-        <v>0.1471048789571275</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J5">
-        <v>0.1548696879699961</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.4616195</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N5">
-        <v>0.923239</v>
+        <v>0.082249</v>
       </c>
       <c r="O5">
-        <v>0.117424333800012</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P5">
-        <v>0.0814718136816918</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q5">
-        <v>11.060277659496</v>
+        <v>2.33745444544989</v>
       </c>
       <c r="R5">
-        <v>66.361665956976</v>
+        <v>21.037090009049</v>
       </c>
       <c r="S5">
-        <v>0.01727369241027211</v>
+        <v>0.004136037608456967</v>
       </c>
       <c r="T5">
-        <v>0.01261751436323327</v>
+        <v>0.004409123848303583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H6">
         <v>255.773201</v>
       </c>
       <c r="I6">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J6">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2063693333333333</v>
+        <v>3.258868</v>
       </c>
       <c r="N6">
-        <v>0.619108</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O6">
-        <v>0.05249514260861875</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P6">
-        <v>0.05463357984752036</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q6">
-        <v>17.59458165830089</v>
+        <v>277.8436999988227</v>
       </c>
       <c r="R6">
-        <v>158.351234924708</v>
+        <v>2500.593299989404</v>
       </c>
       <c r="S6">
-        <v>0.02747882114803565</v>
+        <v>0.4916339630511107</v>
       </c>
       <c r="T6">
-        <v>0.03010772789208733</v>
+        <v>0.5240946133304988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.25773366666667</v>
+        <v>85.25773366666668</v>
       </c>
       <c r="H7">
         <v>255.773201</v>
       </c>
       <c r="I7">
-        <v>0.5234545480313473</v>
+        <v>0.57622993449876</v>
       </c>
       <c r="J7">
-        <v>0.5510846621458181</v>
+        <v>0.5856853276617543</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.258868</v>
+        <v>0.5333405</v>
       </c>
       <c r="N7">
-        <v>9.776603999999999</v>
+        <v>1.066681</v>
       </c>
       <c r="O7">
-        <v>0.8289736543672389</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P7">
-        <v>0.8627426479250582</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q7">
-        <v>277.8436999988226</v>
+        <v>45.47140230264684</v>
       </c>
       <c r="R7">
-        <v>2500.593299989404</v>
+        <v>272.828413815881</v>
       </c>
       <c r="S7">
-        <v>0.4339300295766974</v>
+        <v>0.08045993383919231</v>
       </c>
       <c r="T7">
-        <v>0.4754442406505692</v>
+        <v>0.05718159048295193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.25773366666667</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H8">
-        <v>255.773201</v>
+        <v>48.294839</v>
       </c>
       <c r="I8">
-        <v>0.5234545480313473</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J8">
-        <v>0.5510846621458181</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.004351333333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N8">
-        <v>0.013054</v>
+        <v>0.082249</v>
       </c>
       <c r="O8">
-        <v>0.001106869224130377</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P8">
-        <v>0.001151958545729551</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q8">
-        <v>0.3709848184282222</v>
+        <v>0.4413558014345556</v>
       </c>
       <c r="R8">
-        <v>3.338863365854</v>
+        <v>3.972202212911</v>
       </c>
       <c r="S8">
-        <v>0.0005793957294469744</v>
+        <v>0.000780962468379845</v>
       </c>
       <c r="T8">
-        <v>0.0006348266859793574</v>
+        <v>0.0008325263379914534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.25773366666667</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H9">
-        <v>255.773201</v>
+        <v>48.294839</v>
       </c>
       <c r="I9">
-        <v>0.5234545480313473</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J9">
-        <v>0.5510846621458181</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4616195</v>
+        <v>3.258868</v>
       </c>
       <c r="N9">
-        <v>0.923239</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O9">
-        <v>0.117424333800012</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P9">
-        <v>0.0814718136816918</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q9">
-        <v>39.35663238633983</v>
+        <v>52.46216846075066</v>
       </c>
       <c r="R9">
-        <v>236.139794318039</v>
+        <v>472.159516146756</v>
       </c>
       <c r="S9">
-        <v>0.06146630157716736</v>
+        <v>0.09282983127104602</v>
       </c>
       <c r="T9">
-        <v>0.04489786691718217</v>
+        <v>0.09895901866420982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.737404</v>
+        <v>16.09827966666667</v>
       </c>
       <c r="H10">
-        <v>41.212212</v>
+        <v>48.294839</v>
       </c>
       <c r="I10">
-        <v>0.08434315917965177</v>
+        <v>0.1088031576599699</v>
       </c>
       <c r="J10">
-        <v>0.08879514287465101</v>
+        <v>0.1105885155031808</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2063693333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N10">
-        <v>0.619108</v>
+        <v>1.066681</v>
       </c>
       <c r="O10">
-        <v>0.05249514260861875</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P10">
-        <v>0.05463357984752036</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q10">
-        <v>2.834978905210666</v>
+        <v>8.585864526559833</v>
       </c>
       <c r="R10">
-        <v>25.514810146896</v>
+        <v>51.515187159359</v>
       </c>
       <c r="S10">
-        <v>0.004427606169197251</v>
+        <v>0.01519236392054398</v>
       </c>
       <c r="T10">
-        <v>0.004851196528314224</v>
+        <v>0.01079697050097948</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.737404</v>
+        <v>7.1659615</v>
       </c>
       <c r="H11">
-        <v>41.212212</v>
+        <v>14.331923</v>
       </c>
       <c r="I11">
-        <v>0.08434315917965177</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J11">
-        <v>0.08879514287465101</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.258868</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N11">
-        <v>9.776603999999999</v>
+        <v>0.082249</v>
       </c>
       <c r="O11">
-        <v>0.8289736543672389</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P11">
-        <v>0.8627426479250582</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q11">
-        <v>44.76838629867199</v>
+        <v>0.1964643891378333</v>
       </c>
       <c r="R11">
-        <v>402.915476688048</v>
+        <v>1.178786334827</v>
       </c>
       <c r="S11">
-        <v>0.06991825688603366</v>
+        <v>0.0003476363373747826</v>
       </c>
       <c r="T11">
-        <v>0.07660735668656028</v>
+        <v>0.0002470595951580972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.737404</v>
+        <v>7.1659615</v>
       </c>
       <c r="H12">
-        <v>41.212212</v>
+        <v>14.331923</v>
       </c>
       <c r="I12">
-        <v>0.08434315917965177</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J12">
-        <v>0.08879514287465101</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.004351333333333333</v>
+        <v>3.258868</v>
       </c>
       <c r="N12">
-        <v>0.013054</v>
+        <v>9.776603999999999</v>
       </c>
       <c r="O12">
-        <v>0.001106869224130377</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P12">
-        <v>0.001151958545729551</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q12">
-        <v>0.05977602393866666</v>
+        <v>23.352922621582</v>
       </c>
       <c r="R12">
-        <v>0.537984215448</v>
+        <v>140.117535729492</v>
       </c>
       <c r="S12">
-        <v>9.335684716188602E-05</v>
+        <v>0.04132211706554059</v>
       </c>
       <c r="T12">
-        <v>0.0001022883236537307</v>
+        <v>0.02936696891464982</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.737404</v>
+        <v>7.1659615</v>
       </c>
       <c r="H13">
-        <v>41.212212</v>
+        <v>14.331923</v>
       </c>
       <c r="I13">
-        <v>0.08434315917965177</v>
+        <v>0.04843245707081293</v>
       </c>
       <c r="J13">
-        <v>0.08879514287465101</v>
+        <v>0.03281812553254174</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4616195</v>
+        <v>0.5333405</v>
       </c>
       <c r="N13">
-        <v>0.923239</v>
+        <v>1.066681</v>
       </c>
       <c r="O13">
-        <v>0.117424333800012</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P13">
-        <v>0.0814718136816918</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q13">
-        <v>6.341453565778</v>
+        <v>3.82189748939075</v>
       </c>
       <c r="R13">
-        <v>38.048721394668</v>
+        <v>15.287589957563</v>
       </c>
       <c r="S13">
-        <v>0.00990393927725898</v>
+        <v>0.006762703667897551</v>
       </c>
       <c r="T13">
-        <v>0.007234301336122771</v>
+        <v>0.003204097022733823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.498552</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H14">
-        <v>48.99710399999999</v>
+        <v>50.933198</v>
       </c>
       <c r="I14">
-        <v>0.1504130817588953</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J14">
-        <v>0.1055683410083432</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2063693333333333</v>
+        <v>0.02741633333333333</v>
       </c>
       <c r="N14">
-        <v>0.619108</v>
+        <v>0.082249</v>
       </c>
       <c r="O14">
-        <v>0.05249514260861875</v>
+        <v>0.007177755546585314</v>
       </c>
       <c r="P14">
-        <v>0.05463357984752036</v>
+        <v>0.007528144619750395</v>
       </c>
       <c r="Q14">
-        <v>5.055749843871999</v>
+        <v>0.4654671780335555</v>
       </c>
       <c r="R14">
-        <v>30.33449906323199</v>
+        <v>4.189204602302</v>
       </c>
       <c r="S14">
-        <v>0.007895956177135044</v>
+        <v>0.0008236266411936765</v>
       </c>
       <c r="T14">
-        <v>0.005767576387849576</v>
+        <v>0.0008780074577561716</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.498552</v>
+        <v>16.97773266666666</v>
       </c>
       <c r="H15">
-        <v>48.99710399999999</v>
+        <v>50.933198</v>
       </c>
       <c r="I15">
-        <v>0.1504130817588953</v>
+        <v>0.1147471010747227</v>
       </c>
       <c r="J15">
-        <v>0.1055683410083432</v>
+        <v>0.1166299934585055</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>9.776603999999999</v>
       </c>
       <c r="O15">
-        <v>0.8289736543672389</v>
+        <v>0.8531905991290855</v>
       </c>
       <c r="P15">
-        <v>0.8627426479250582</v>
+        <v>0.8948399226985152</v>
       </c>
       <c r="Q15">
-        <v>79.83754715913598</v>
+        <v>55.32818969995466</v>
       </c>
       <c r="R15">
-        <v>479.0252829548159</v>
+        <v>497.9537072995919</v>
       </c>
       <c r="S15">
-        <v>0.1246884820503098</v>
+        <v>0.0979011479142684</v>
       </c>
       <c r="T15">
-        <v>0.09107831005859351</v>
+        <v>0.1043651743307374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.97773266666666</v>
+      </c>
+      <c r="H16">
+        <v>50.933198</v>
+      </c>
+      <c r="I16">
+        <v>0.1147471010747227</v>
+      </c>
+      <c r="J16">
+        <v>0.1166299934585055</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.498552</v>
-      </c>
-      <c r="H16">
-        <v>48.99710399999999</v>
-      </c>
-      <c r="I16">
-        <v>0.1504130817588953</v>
-      </c>
-      <c r="J16">
-        <v>0.1055683410083432</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.004351333333333333</v>
+        <v>0.5333405</v>
       </c>
       <c r="N16">
-        <v>0.013054</v>
+        <v>1.066681</v>
       </c>
       <c r="O16">
-        <v>0.001106869224130377</v>
+        <v>0.1396316453243292</v>
       </c>
       <c r="P16">
-        <v>0.001151958545729551</v>
+        <v>0.09763193268173437</v>
       </c>
       <c r="Q16">
-        <v>0.106601365936</v>
+        <v>9.054912429306333</v>
       </c>
       <c r="R16">
-        <v>0.6396081956159999</v>
+        <v>54.329474575838</v>
       </c>
       <c r="S16">
-        <v>0.0001664876111055274</v>
+        <v>0.01602232651926064</v>
       </c>
       <c r="T16">
-        <v>0.0001216103525830523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>24.498552</v>
-      </c>
-      <c r="H17">
-        <v>48.99710399999999</v>
-      </c>
-      <c r="I17">
-        <v>0.1504130817588953</v>
-      </c>
-      <c r="J17">
-        <v>0.1055683410083432</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.4616195</v>
-      </c>
-      <c r="N17">
-        <v>0.923239</v>
-      </c>
-      <c r="O17">
-        <v>0.117424333800012</v>
-      </c>
-      <c r="P17">
-        <v>0.0814718136816918</v>
-      </c>
-      <c r="Q17">
-        <v>11.309009324964</v>
-      </c>
-      <c r="R17">
-        <v>45.23603729985599</v>
-      </c>
-      <c r="S17">
-        <v>0.01766215592034503</v>
-      </c>
-      <c r="T17">
-        <v>0.008600844209317041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>15.421724</v>
-      </c>
-      <c r="H18">
-        <v>46.265172</v>
-      </c>
-      <c r="I18">
-        <v>0.09468433207297798</v>
-      </c>
-      <c r="J18">
-        <v>0.09968216600119166</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.2063693333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.619108</v>
-      </c>
-      <c r="O18">
-        <v>0.05249514260861875</v>
-      </c>
-      <c r="P18">
-        <v>0.05463357984752036</v>
-      </c>
-      <c r="Q18">
-        <v>3.182570900730666</v>
-      </c>
-      <c r="R18">
-        <v>28.643138106576</v>
-      </c>
-      <c r="S18">
-        <v>0.004970467514972794</v>
-      </c>
-      <c r="T18">
-        <v>0.005445993575599884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>15.421724</v>
-      </c>
-      <c r="H19">
-        <v>46.265172</v>
-      </c>
-      <c r="I19">
-        <v>0.09468433207297798</v>
-      </c>
-      <c r="J19">
-        <v>0.09968216600119166</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.258868</v>
-      </c>
-      <c r="N19">
-        <v>9.776603999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.8289736543672389</v>
-      </c>
-      <c r="P19">
-        <v>0.8627426479250582</v>
-      </c>
-      <c r="Q19">
-        <v>50.257362848432</v>
-      </c>
-      <c r="R19">
-        <v>452.3162656358879</v>
-      </c>
-      <c r="S19">
-        <v>0.07849081676985772</v>
-      </c>
-      <c r="T19">
-        <v>0.0860000558467733</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>15.421724</v>
-      </c>
-      <c r="H20">
-        <v>46.265172</v>
-      </c>
-      <c r="I20">
-        <v>0.09468433207297798</v>
-      </c>
-      <c r="J20">
-        <v>0.09968216600119166</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.004351333333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.013054</v>
-      </c>
-      <c r="O20">
-        <v>0.001106869224130377</v>
-      </c>
-      <c r="P20">
-        <v>0.001151958545729551</v>
-      </c>
-      <c r="Q20">
-        <v>0.06710506169866666</v>
-      </c>
-      <c r="R20">
-        <v>0.603945555288</v>
-      </c>
-      <c r="S20">
-        <v>0.0001048031731789201</v>
-      </c>
-      <c r="T20">
-        <v>0.0001148297229819044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>15.421724</v>
-      </c>
-      <c r="H21">
-        <v>46.265172</v>
-      </c>
-      <c r="I21">
-        <v>0.09468433207297798</v>
-      </c>
-      <c r="J21">
-        <v>0.09968216600119166</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.4616195</v>
-      </c>
-      <c r="N21">
-        <v>0.923239</v>
-      </c>
-      <c r="O21">
-        <v>0.117424333800012</v>
-      </c>
-      <c r="P21">
-        <v>0.0814718136816918</v>
-      </c>
-      <c r="Q21">
-        <v>7.118968522018</v>
-      </c>
-      <c r="R21">
-        <v>42.713811132108</v>
-      </c>
-      <c r="S21">
-        <v>0.01111824461496855</v>
-      </c>
-      <c r="T21">
-        <v>0.00812128685583656</v>
+        <v>0.01138681167001192</v>
       </c>
     </row>
   </sheetData>
